--- a/Trazabilidad/Volcado de funcionalidad.xlsx
+++ b/Trazabilidad/Volcado de funcionalidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnun365-my.sharepoint.com/personal/jlarracoech_ceit_es/Documents/Documents/BIDEROAD/Publicado/BIDEROAD/Trazabilidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{2BBE34D5-8F52-44EB-B04E-761964F00661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEC7974-3150-4CB5-BF88-6A684AC67368}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{2BBE34D5-8F52-44EB-B04E-761964F00661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{977F2FB9-30B5-4759-BD3E-71D0CF7865B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0EFFDD19-354D-49E8-8DD8-E01BB9A59996}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{0EFFDD19-354D-49E8-8DD8-E01BB9A59996}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilotos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="266">
   <si>
     <t>Tipo de cliente</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>R001.SR000.F005.SF000.P000.SP000.EC000</t>
+  </si>
+  <si>
+    <t>R002.SR000.F000.SF000.P000.SP000.EC000</t>
+  </si>
+  <si>
+    <t>R003.SR000.F000.SF000.P000.SP000.EC000</t>
   </si>
 </sst>
 </file>
@@ -982,10 +988,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2271,7 +2273,7 @@
   <dimension ref="A4:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,6 +2719,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
       <c r="B24" t="s">
         <v>163</v>
       </c>
@@ -2810,6 +2815,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>265</v>
+      </c>
       <c r="B28" t="s">
         <v>167</v>
       </c>
@@ -2853,7 +2861,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>170</v>
       </c>
@@ -2876,7 +2884,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>171</v>
       </c>
@@ -2899,7 +2907,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
       <c r="B35" t="s">
         <v>172</v>
       </c>
@@ -2922,7 +2933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>173</v>
       </c>
@@ -2945,7 +2956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>174</v>
       </c>
@@ -2968,7 +2979,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>175</v>
       </c>
@@ -2991,7 +3002,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>176</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>177</v>
       </c>
@@ -3037,7 +3048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>178</v>
       </c>
@@ -3060,7 +3071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>179</v>
       </c>
@@ -3083,7 +3094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>180</v>
       </c>
@@ -3106,13 +3117,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="2:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="E46" s="11"/>
       <c r="F46" s="12" t="s">
         <v>81</v>
@@ -3124,7 +3135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>181</v>
       </c>
@@ -3148,7 +3159,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>182</v>
       </c>
